--- a/classfiers/chain/welm/smote/chain_welm_tanh_smote_results.xlsx
+++ b/classfiers/chain/welm/smote/chain_welm_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6840958605664488</v>
+        <v>0.505</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9956896551724138</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7611202635914333</v>
+        <v>0.660958904109589</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9077738113322192</v>
+        <v>0.5682210708117443</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7167755991285403</v>
+        <v>0.63</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7149321266968326</v>
+        <v>0.8942307692307693</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7085201793721972</v>
+        <v>0.7153846153846153</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8069793528271036</v>
+        <v>0.6243614783653847</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5708061002178649</v>
+        <v>0.5225</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9791666666666666</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.704647676161919</v>
+        <v>0.6654991243432574</v>
       </c>
       <c r="E4" t="n">
-        <v>0.314412100456621</v>
+        <v>0.5366290726817042</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5315904139433552</v>
+        <v>0.5363408521303258</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6814814814814816</v>
+        <v>0.6760070052539404</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5796183785836339</v>
+        <v>0.5255546053624427</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5218340611353712</v>
+        <v>0.5639097744360902</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.5255813953488372</v>
       </c>
       <c r="D6" t="n">
-        <v>0.671664167916042</v>
+        <v>0.5650000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5832760989010989</v>
+        <v>0.6302199191102124</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6050204069983161</v>
+        <v>0.5515501253132832</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9379576897071825</v>
+        <v>0.8839624329159212</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7054867537046146</v>
+        <v>0.6565699298182804</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6384119484201354</v>
+        <v>0.5769972292662976</v>
       </c>
     </row>
   </sheetData>
